--- a/DemoData/TestPlan.xlsx
+++ b/DemoData/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sdet-framework-reference\DemoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF9DE5-BABA-4751-8752-D1E0EF13A97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF72B0-D8F7-4FFA-9446-A9846AF6D77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5904" yWindow="0" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDir" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>TestName</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>add_item_to_cart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默認為index=0加入第一個商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index=0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -248,6 +260,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +582,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -643,10 +658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D653F17-7651-4C82-8B74-0BA06AE6A92F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -654,12 +669,13 @@
     <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="2"/>
-    <col min="5" max="5" width="30.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="36.875" style="2"/>
+    <col min="4" max="4" width="22.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="2"/>
+    <col min="6" max="6" width="30.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="36.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -670,13 +686,16 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -686,11 +705,12 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -700,8 +720,9 @@
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -711,7 +732,13 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/DemoData/TestPlan.xlsx
+++ b/DemoData/TestPlan.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nxwitness-demo\DemoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9CCCA0-AEBA-4E93-8836-BEA1C26B88D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EBDDD8-B81D-4D6E-B7D1-4EECD6624003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="3720" windowWidth="17280" windowHeight="9960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDir" sheetId="1" r:id="rId1"/>
     <sheet name="Case1" sheetId="2" r:id="rId2"/>
-    <sheet name="Translate" sheetId="3" r:id="rId3"/>
+    <sheet name="Case2" sheetId="4" r:id="rId3"/>
+    <sheet name="Case4" sheetId="5" r:id="rId4"/>
+    <sheet name="Translate" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
   <si>
     <t>FunctionalClassification</t>
   </si>
@@ -105,38 +107,290 @@
     <t>camera_name=usb_cam;playback_duration=7</t>
   </si>
   <si>
+    <t>ActionMethod</t>
+  </si>
+  <si>
+    <t>nx_poc</t>
+  </si>
+  <si>
+    <t>run_ensure_login_step</t>
+  </si>
+  <si>
+    <t>run_change_language_step</t>
+  </si>
+  <si>
+    <t>run_enable_usb_webcam_step</t>
+  </si>
+  <si>
+    <t>run_activate_free_license_step</t>
+  </si>
+  <si>
+    <t>run_enable_recording_step</t>
+  </si>
+  <si>
+    <t>run_playback_recording_step</t>
+  </si>
+  <si>
+    <t>自動登入伺服器並切換繁體中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>進</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nx Cloud</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_enter_nx_cloud_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_nx_cloud_web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>調閱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個錄影事件回放</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_review_recording_playback_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_recording_playback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調閱一個錄影事件回放 (Mobile Android)</t>
+  </si>
+  <si>
+    <t>nx_mobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_login_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ActionKey</t>
-  </si>
-  <si>
-    <t>ActionMethod</t>
-  </si>
-  <si>
-    <t>nx_poc</t>
-  </si>
-  <si>
-    <t>run_ensure_login_step</t>
-  </si>
-  <si>
-    <t>run_change_language_step</t>
-  </si>
-  <si>
-    <t>run_enable_usb_webcam_step</t>
-  </si>
-  <si>
-    <t>run_activate_free_license_step</t>
-  </si>
-  <si>
-    <t>run_enable_recording_step</t>
-  </si>
-  <si>
-    <t>run_playback_recording_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_mobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_select_server_and_camera_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_server_and_camera</t>
+  </si>
+  <si>
+    <t>run_playback_with_calendar_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playback_with_calendar</t>
+  </si>
+  <si>
+    <t>playback_with_calendar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>server_name=LAPTOP-QRJN5735</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;camera_name=usb_cam</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>days_ago=17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nx Witness mobile 登入 Nx Cloud</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調閱一個錄影事件回放 (Mobile Android)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +411,27 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,11 +469,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -501,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -576,6 +852,50 @@
       </c>
       <c r="C6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +910,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -639,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -791,11 +1111,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1B7B97-A634-4770-83D9-61FF40525F35}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729A69C-2FFD-487C-BA15-BD8AA698CAC8}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -810,10 +1283,10 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,10 +1294,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -832,10 +1305,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -843,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,10 +1327,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -865,10 +1338,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,10 +1349,65 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
